--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\CP05MOAS-GL387\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2544" yWindow="2160" windowWidth="23040" windowHeight="8544" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="2550" yWindow="2160" windowWidth="23040" windowHeight="8550" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Ref Des</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>N00140</t>
+  </si>
+  <si>
+    <t>CC_bsipar_par_scaling</t>
   </si>
 </sst>
 </file>
@@ -256,12 +259,14 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -272,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +293,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,7 +362,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -412,6 +423,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -547,7 +561,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -582,7 +596,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -797,18 +811,18 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="11" width="10.109375" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>34</v>
       </c>
@@ -846,7 +860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -907,20 +921,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -946,7 +962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -981,7 +997,7 @@
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -1016,7 +1032,7 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1051,7 +1067,7 @@
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1086,7 +1102,7 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="9"/>
@@ -1105,7 +1121,7 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -1135,7 +1151,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1165,7 +1181,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1195,7 +1211,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1225,7 +1241,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="9"/>
@@ -1239,7 +1255,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
@@ -1265,7 +1281,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="9"/>
@@ -1279,7 +1295,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -1305,7 +1321,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="9"/>
@@ -1319,7 +1335,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
@@ -1338,14 +1354,18 @@
       <c r="F16" s="13">
         <v>50165</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
+      <c r="G16" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="25">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="9"/>
@@ -1359,7 +1379,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -1383,7 +1403,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00001.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2160" windowWidth="23040" windowHeight="8550" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="2550" yWindow="2160" windowWidth="23040" windowHeight="8550" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Ref Des</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>CC_bsipar_par_scaling</t>
+  </si>
+  <si>
+    <t>OL000356</t>
   </si>
 </sst>
 </file>
@@ -807,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -921,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,7 +1395,9 @@
       <c r="D18" s="9">
         <v>1</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
       <c r="F18" s="19">
         <v>387</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2160" windowWidth="23040" windowHeight="8550" tabRatio="377"/>
+    <workbookView xWindow="2560" yWindow="2160" windowWidth="27060" windowHeight="8940" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$80</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$339</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -564,7 +559,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,7 +594,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -811,21 +806,21 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="11" width="10.1640625" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28">
       <c r="A1" s="23" t="s">
         <v>34</v>
       </c>
@@ -863,7 +858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -877,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="20">
-        <v>41752</v>
+        <v>41745</v>
       </c>
       <c r="F2" s="5">
         <v>0.61111111111111105</v>
@@ -928,18 +923,18 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -965,7 +960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -1000,7 +995,7 @@
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -1035,7 +1030,7 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1070,7 +1065,7 @@
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1105,7 +1100,7 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="9"/>
@@ -1124,7 +1119,7 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="1" customFormat="1">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -1154,7 +1149,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1184,7 +1179,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="1" customFormat="1">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1214,7 +1209,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="1" customFormat="1">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1244,7 +1239,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="1" customFormat="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="9"/>
@@ -1258,7 +1253,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="1" customFormat="1">
       <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
@@ -1284,7 +1279,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="1" customFormat="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="9"/>
@@ -1298,7 +1293,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="1" customFormat="1">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -1324,7 +1319,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="1" customFormat="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="9"/>
@@ -1338,7 +1333,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="1" customFormat="1">
       <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
@@ -1368,7 +1363,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="1" customFormat="1">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="9"/>
@@ -1382,7 +1377,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="1" customFormat="1">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -1408,7 +1403,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="1" customFormat="1">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -1424,7 +1419,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
